--- a/cfg/LE_CODS.xlsx
+++ b/cfg/LE_CODS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amt/Dropbox/MCOD/LifeEx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/sfos0464_ox_ac_uk/Documents/GitHub/ex_USA_racial-ethnic_differences/cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F54C59-1BE1-F749-8DB6-FDFB82E3CDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{85F54C59-1BE1-F749-8DB6-FDFB82E3CDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7C62C49-5313-4C40-8326-BF65D3012F82}"/>
   <bookViews>
-    <workbookView xWindow="43600" yWindow="4500" windowWidth="21440" windowHeight="20500" xr2:uid="{A0B28491-5518-7148-B826-669F1D8D08E5}"/>
+    <workbookView xWindow="57480" yWindow="10590" windowWidth="29040" windowHeight="15840" xr2:uid="{A0B28491-5518-7148-B826-669F1D8D08E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -144,15 +143,21 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,16 +165,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,117 +523,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDABA716-D440-D346-91F6-1CE0CCCE2E37}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="28.1640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="45.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:5" ht="7.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:5" ht="46" x14ac:dyDescent="0.5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:5" ht="30.7" x14ac:dyDescent="0.5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:5" ht="30.7" x14ac:dyDescent="0.5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
